--- a/Package Summary.xlsx
+++ b/Package Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cincinnati\GitHub\SayakChakraborty\Anime Analysis in R\Anime_Analysis_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cincinnati\GitHub\SayakChakraborty\Women in the Workplace Analysis in R\WomenWorkplace_Analysis_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{34A70631-812A-4BA0-96FB-23E324780D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70C878DE-1E0A-4FE0-9412-B6132C6EF0FA}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{34A70631-812A-4BA0-96FB-23E324780D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{892D68F2-5466-4037-A1CE-C61774549E72}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{78C35055-45FA-4991-A297-7EA8964DAF94}"/>
   </bookViews>
@@ -83,36 +83,12 @@
     <t>library(shiny)</t>
   </si>
   <si>
-    <t>For changing the layout of your data sets, to convert data into the tidy format.</t>
-  </si>
-  <si>
     <t>For customizable graphical representation</t>
   </si>
   <si>
-    <t>For data manipulation.</t>
-  </si>
-  <si>
-    <t>Collection of R packages designed for data science that works harmoniously with other packages.</t>
-  </si>
-  <si>
-    <t>To display table in a fancy way.</t>
-  </si>
-  <si>
-    <t>Lubridate makes it easier to do the things R does with date-times and possible to do the things R does not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The readxl package makes it easy to get data out of Excel and into R. </t>
-  </si>
-  <si>
-    <t>Highcharter is a R wrapper for Highcharts javascript libray and its modules.</t>
-  </si>
-  <si>
     <t>The idea of the scales package is to implement scales in a way that is graphics system agnostic</t>
   </si>
   <si>
-    <t>RColorBrewer is an R package that allows users to create colourful graphs with pre-made color palettes that visualize data in a clear and distinguishable manner.</t>
-  </si>
-  <si>
     <t>A Wes Anderson is color palette for R</t>
   </si>
   <si>
@@ -123,6 +99,30 @@
   </si>
   <si>
     <t>For HTML display of data</t>
+  </si>
+  <si>
+    <t>For changing the layout of your data sets, to convert data into the tidy format</t>
+  </si>
+  <si>
+    <t>For data manipulation</t>
+  </si>
+  <si>
+    <t>Collection of R packages designed for data science that works harmoniously with other packages</t>
+  </si>
+  <si>
+    <t>To display table in a fancy way</t>
+  </si>
+  <si>
+    <t>Lubridate makes it easier to do the things R does with date-times and possible to do the things R does not</t>
+  </si>
+  <si>
+    <t>The readxl package makes it easy to get data out of Excel and into R</t>
+  </si>
+  <si>
+    <t>Highcharter is a R wrapper for Highcharts javascript libray and its modules</t>
+  </si>
+  <si>
+    <t>RColorBrewer is an R package that allows users to create colourful graphs with pre-made color palettes that visualize data in a clear and distinguishable manner</t>
   </si>
 </sst>
 </file>
@@ -492,13 +492,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="137" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
